--- a/Excels/UI.xlsx
+++ b/Excels/UI.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\CFramework\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452323B-3816-46BD-BFD5-9674E298144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCC3235-C52C-4841-813B-2595EC0B822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="界面配置表 " sheetId="1" r:id="rId1"/>
+    <sheet name="UIForm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
